--- a/PersonelYonSis/staticfiles/excels/HizmetSunumSablon.xlsx
+++ b/PersonelYonSis/staticfiles/excels/HizmetSunumSablon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idare10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PerYonSis\PersonelYonSis\staticfiles\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>T.C. Kimlik No</t>
   </si>
@@ -46,12 +46,18 @@
   </si>
   <si>
     <t>Sertifika</t>
+  </si>
+  <si>
+    <t>Kurum</t>
+  </si>
+  <si>
+    <t>Üst Birim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,9 +888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,9 +903,11 @@
     <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -924,6 +934,12 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PersonelYonSis/staticfiles/excels/HizmetSunumSablon.xlsx
+++ b/PersonelYonSis/staticfiles/excels/HizmetSunumSablon.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="OzelAlanCalismasi" sheetId="1" r:id="rId1"/>
+    <sheet name="Kodlar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>T.C. Kimlik No</t>
   </si>
@@ -52,13 +53,124 @@
   </si>
   <si>
     <t>Üst Birim</t>
+  </si>
+  <si>
+    <t>ACİL HİZMETLERİ (3. SEVİYE)</t>
+  </si>
+  <si>
+    <t>YOĞUN BAKIM VE REANİMASYON HİZMETLERİ (3. SEVİYE)</t>
+  </si>
+  <si>
+    <t>ORGAN VE DOKU NAKLİ İLE KEMİK İLİĞİ NAKİL ÜNİTELERİ</t>
+  </si>
+  <si>
+    <t>YENİDOĞAN - SÜT ÇOCUĞU SERVİSİ</t>
+  </si>
+  <si>
+    <t>YANIK ÜNİTE VE MERKEZLERİ</t>
+  </si>
+  <si>
+    <t>KAPALI PSİKİYATRİ SERVİSİ - YGAP</t>
+  </si>
+  <si>
+    <t>ACİL HİZMETLERİ (1. SEVİYE)</t>
+  </si>
+  <si>
+    <t>ACİL HİZMETLERİ (2. SEVİYE)</t>
+  </si>
+  <si>
+    <t>AMELİYATHANE HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>DOĞUMHANE</t>
+  </si>
+  <si>
+    <t>YOĞUN BAKIM VE REANİMASYON HİZMETLERİ (1. SEVİYE)</t>
+  </si>
+  <si>
+    <t>YOĞUN BAKIM VE REANİMASYON HİZMETLERİ (2. SEVİYE)</t>
+  </si>
+  <si>
+    <t>DİYALİZ ÜNİTE - MERKEZİ</t>
+  </si>
+  <si>
+    <t>ANJİYOGRAFİ (KORONER, SANTRAL, PERİFERİK)</t>
+  </si>
+  <si>
+    <t>UYANDIRMA VE AMELİYAT SONU BAKIM ÜNİTESİ HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>HİPERBARİK TEDAVİ ÜNİTESİ</t>
+  </si>
+  <si>
+    <t>AMATEM, ÇİM</t>
+  </si>
+  <si>
+    <t>PALYATİF BAKIM MERKEZİ</t>
+  </si>
+  <si>
+    <t>KAN MERKEZİ</t>
+  </si>
+  <si>
+    <t>REHABİLİTASYON HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>PATOLOJİ</t>
+  </si>
+  <si>
+    <t>ÜYTE MERKEZİ</t>
+  </si>
+  <si>
+    <t>ENDOSKOPİ, BRONKOSKOPİ</t>
+  </si>
+  <si>
+    <t>ECZANE HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>RADYOTERAPİ HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>DİĞER AYAKTAN TEDAVİ, ÜNİTE VE MERKEZLERİ</t>
+  </si>
+  <si>
+    <t>EVDE SAĞLIK HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>DİĞER</t>
+  </si>
+  <si>
+    <t>İZOLASYON ODALARI</t>
+  </si>
+  <si>
+    <t>ÇEMATEM, TRSM</t>
+  </si>
+  <si>
+    <t>KALP MERKEZİ</t>
+  </si>
+  <si>
+    <t>KEMOTERAPİ HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>DİĞER YATAKLI SERVİS HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>GİRİŞİMSEL RADYOLOJİ BİRİMLERİ</t>
+  </si>
+  <si>
+    <t>NÜKLEER TIP HİZMETLERİ</t>
+  </si>
+  <si>
+    <t>HSA KODU</t>
+  </si>
+  <si>
+    <t>HSA Adı</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +322,18 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="34">
@@ -559,13 +683,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -612,7 +748,59 @@
     <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="MS Shell Dlg 2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="MS Shell Dlg 2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -623,6 +811,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:B36" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B36"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="HSA KODU" dataDxfId="2"/>
+    <tableColumn id="2" name="HSA Adı" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +1090,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,4 +1145,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>104</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>107</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>108</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>